--- a/municipal/სოციალური სტატისტიკა/რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა/სამცხე-ჯავახეთი/ახალციხე.xlsx
+++ b/municipal/სოციალური სტატისტიკა/რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა/სამცხე-ჯავახეთი/ახალციხე.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატ\რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა\სამცხე-ჯავახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\სოციალური სტატისტიკა\რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა\სამცხე-ჯავახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -581,25 +581,25 @@
         <v>6453</v>
       </c>
       <c r="E4" s="8">
-        <v>4029</v>
+        <v>6100</v>
       </c>
       <c r="F4" s="9">
-        <v>3387</v>
+        <v>5026</v>
       </c>
       <c r="G4" s="9">
-        <v>2217</v>
+        <v>3333</v>
       </c>
       <c r="H4" s="9">
-        <v>2102</v>
+        <v>3191</v>
       </c>
       <c r="I4" s="9">
-        <v>1913</v>
+        <v>2913</v>
       </c>
       <c r="J4" s="9">
-        <v>2005</v>
+        <v>3058</v>
       </c>
       <c r="K4" s="9">
-        <v>2135</v>
+        <v>3275</v>
       </c>
       <c r="L4" s="10"/>
     </row>
@@ -617,25 +617,25 @@
         <v>987</v>
       </c>
       <c r="E5" s="9">
-        <v>212</v>
+        <v>696</v>
       </c>
       <c r="F5" s="9">
-        <v>537</v>
+        <v>784</v>
       </c>
       <c r="G5" s="9">
-        <v>499</v>
+        <v>729</v>
       </c>
       <c r="H5" s="9">
-        <v>491</v>
+        <v>685</v>
       </c>
       <c r="I5" s="9">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J5" s="9">
-        <v>562</v>
+        <v>804</v>
       </c>
       <c r="K5" s="9">
-        <v>712</v>
+        <v>1057</v>
       </c>
       <c r="L5" s="10"/>
     </row>
